--- a/Leaks_ents_beta.xlsx
+++ b/Leaks_ents_beta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="180">
   <si>
     <t xml:space="preserve">Node Type</t>
   </si>
@@ -899,7 +899,7 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -974,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -1944,10 +1944,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2627,35 +2627,35 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>178</v>
@@ -2667,56 +2667,56 @@
         <v>60</v>
       </c>
       <c r="F31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="56.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="7" t="s">
+    <row r="33" customFormat="false" ht="56.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="C33" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="F33" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,7 +2724,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>178</v>
@@ -2736,10 +2736,10 @@
         <v>90</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2747,7 +2747,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>178</v>
@@ -2762,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,53 +2770,53 @@
         <v>7</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="C37" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F37" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>178</v>
@@ -2824,14 +2824,14 @@
       <c r="D38" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>7</v>
+      <c r="E38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>178</v>
@@ -2851,10 +2851,10 @@
         <v>115</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>178</v>
@@ -2871,21 +2871,21 @@
         <v>179</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>178</v>
@@ -2893,14 +2893,14 @@
       <c r="D41" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>3</v>
+      <c r="E41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,7 +2908,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>178</v>
@@ -2917,13 +2917,13 @@
         <v>179</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,68 +2931,68 @@
         <v>7</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="C45" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +3000,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>178</v>
@@ -3008,14 +3008,14 @@
       <c r="D46" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>8</v>
+      <c r="E46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3023,7 +3023,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>178</v>
@@ -3031,14 +3031,14 @@
       <c r="D47" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>7</v>
+      <c r="E47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>6</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,7 +3046,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>178</v>
@@ -3055,13 +3055,13 @@
         <v>179</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,7 +3069,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>178</v>
@@ -3078,13 +3078,13 @@
         <v>179</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,34 +3092,79 @@
         <v>7</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="C52" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G53" s="3"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G55" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
